--- a/sąskaitos_exl/Vardas10 Pavardė10.xlsx
+++ b/sąskaitos_exl/Vardas10 Pavardė10.xlsx
@@ -485,7 +485,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mama2</t>
+          <t>Mama10</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Suma žodžiais: penkiolika eurų 00 ct</t>
+          <t>Suma žodžiais: dvidešimt eurų 00 ct</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
